--- a/src/report/xlsx/KNHVendorExcel.xlsx
+++ b/src/report/xlsx/KNHVendorExcel.xlsx
@@ -16,7 +16,10 @@
     <x:sheet name="TranslationData" sheetId="2" r:id="rId2"/>
     <x:sheet name="CaptionData" sheetId="3" r:id="rId3"/>
     <x:sheet name="Aggregated Metadata" sheetId="4" r:id="rId4"/>
-    <x:sheet name="DataItemName" sheetId="5" r:id="R500f991fcd2645ae"/>
+    <x:sheet name="Vendor" sheetId="5" r:id="Ra740573bed314f15"/>
+    <x:sheet name="VendLedgEntry" sheetId="6" r:id="R0b162fc46a264147"/>
+    <x:sheet name="Dimension" sheetId="7" r:id="R0df5ace521f14e02"/>
+    <x:sheet name="DimensionValue" sheetId="8" r:id="R812ad7649bd2474d"/>
   </x:sheets>
   <x:calcPr calcId="0"/>
 </x:workbook>
@@ -369,22 +372,53 @@
 </x:styleSheet>
 </file>
 
+<file path=xl/tables/table1110.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Dimension" displayName="Dimension" ref="A1:B2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:B2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Dim_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="Dim_Name" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table1111.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="DimensionValue" displayName="DimensionValue" ref="A1:C2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:C2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="3">
+    <x:tableColumn id="1" name="DV_DimCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="DV_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="DV_Name" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
 <file path=xl/tables/table118.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="DataItemName" displayName="DataItemName" ref="A1:L2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:L2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="12">
-    <x:tableColumn id="1" name="Document_No_" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="2" name="Document_Type" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="Posting_Date" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="Document_Date" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="6" name="Dimension_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="7" name="Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="Name" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="DimensionCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="10" name="CodeValue" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="CodeName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="12" name="No_" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Vendor" displayName="Vendor" ref="A1:B2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:B2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="2">
+    <x:tableColumn id="1" name="Vend_No" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="Vend_Name" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table119.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="VendLedgEntry" displayName="VendLedgEntry" ref="A1:I2" totalsRowShown="0" headerRowDxfId="4" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:I2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="9">
+    <x:tableColumn id="1" name="VLE_DocNo_" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="VLE_DocType" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="VLE_No" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="4" name="VLE_Desc" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="VLE_Amount" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="VLE_PostDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="7" name="VLE_DocDate" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="VLE_Dept" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="9" name="VLE_CustGroup" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -762,40 +796,10 @@
   <x:sheetData>
     <x:row>
       <x:c r="A1" t="str">
-        <x:v>Document_No_</x:v>
+        <x:v>Vend_No</x:v>
       </x:c>
       <x:c r="B1" t="str">
-        <x:v>Document_Type</x:v>
-      </x:c>
-      <x:c r="C1" t="str">
-        <x:v>Amount</x:v>
-      </x:c>
-      <x:c r="D1" t="str">
-        <x:v>Posting_Date</x:v>
-      </x:c>
-      <x:c r="E1" t="str">
-        <x:v>Document_Date</x:v>
-      </x:c>
-      <x:c r="F1" t="str">
-        <x:v>Dimension_Code</x:v>
-      </x:c>
-      <x:c r="G1" t="str">
-        <x:v>Code</x:v>
-      </x:c>
-      <x:c r="H1" t="str">
-        <x:v>Name</x:v>
-      </x:c>
-      <x:c r="I1" t="str">
-        <x:v>DimensionCode</x:v>
-      </x:c>
-      <x:c r="J1" t="str">
-        <x:v>CodeValue</x:v>
-      </x:c>
-      <x:c r="K1" t="str">
-        <x:v>CodeName</x:v>
-      </x:c>
-      <x:c r="L1" t="str">
-        <x:v>No_</x:v>
+        <x:v>Vend_Name</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -805,20 +809,73 @@
       <x:c r="B2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="C2" s="2" t="n">
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId1"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:A2"/>
+  <x:sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <x:cols>
+    <x:col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row>
+      <x:c r="A1" t="str">
+        <x:v>VLE_DocNo_</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>VLE_DocType</x:v>
+      </x:c>
+      <x:c r="C1" t="str">
+        <x:v>VLE_No</x:v>
+      </x:c>
+      <x:c r="D1" t="str">
+        <x:v>VLE_Desc</x:v>
+      </x:c>
+      <x:c r="E1" t="str">
+        <x:v>VLE_Amount</x:v>
+      </x:c>
+      <x:c r="F1" t="str">
+        <x:v>VLE_PostDate</x:v>
+      </x:c>
+      <x:c r="G1" t="str">
+        <x:v>VLE_DocDate</x:v>
+      </x:c>
+      <x:c r="H1" t="str">
+        <x:v>VLE_Dept</x:v>
+      </x:c>
+      <x:c r="I1" t="str">
+        <x:v>VLE_CustGroup</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="B2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="D2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="E2" s="2" t="n">
         <x:v>0.0</x:v>
       </x:c>
-      <x:c r="D2" s="3">
+      <x:c r="F2" s="3">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E2" s="3">
+      <x:c r="G2" s="3">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="F2" t="str">
-        <x:v/>
-      </x:c>
-      <x:c r="G2" t="str">
-        <x:v/>
       </x:c>
       <x:c r="H2" t="str">
         <x:v/>
@@ -826,13 +883,74 @@
       <x:c r="I2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="J2" t="str">
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId1"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:A2"/>
+  <x:sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <x:cols>
+    <x:col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row>
+      <x:c r="A1" t="str">
+        <x:v>Dim_Code</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>Dim_Name</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="K2" t="str">
+      <x:c r="B2" t="str">
         <x:v/>
       </x:c>
-      <x:c r="L2" t="str">
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId1"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:A2"/>
+  <x:sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <x:cols>
+    <x:col min="1" max="1" width="18.4609375" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row>
+      <x:c r="A1" t="str">
+        <x:v>DV_DimCode</x:v>
+      </x:c>
+      <x:c r="B1" t="str">
+        <x:v>DV_Code</x:v>
+      </x:c>
+      <x:c r="C1" t="str">
+        <x:v>DV_Name</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="B2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="C2" t="str">
         <x:v/>
       </x:c>
     </x:row>
